--- a/molecular/qPCR plating 5.31.22.xlsx
+++ b/molecular/qPCR plating 5.31.22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/molecular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED6BAB4-F0F8-B548-9F03-C2DD8ABB79F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926B6F26-249E-4A42-A9F0-B58185C03DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{DAD4E966-A15F-EE4A-BE8D-8A0B8A0BDA94}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>A</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Olivia</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,7 +513,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -548,7 +554,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -769,8 +775,8 @@
       <c r="D9" s="1">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
-        <v>16</v>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="1">
         <v>20</v>
